--- a/biology/Botanique/Herbier_d'Ulisse_Aldrovandi/Herbier_d'Ulisse_Aldrovandi.xlsx
+++ b/biology/Botanique/Herbier_d'Ulisse_Aldrovandi/Herbier_d'Ulisse_Aldrovandi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Herbier_d%27Ulisse_Aldrovandi</t>
+          <t>Herbier_d'Ulisse_Aldrovandi</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Herbier d'Ulisse Aldrovandi est une des collections de plantes conservées à l'intérieur de l'Herbier de l'université de Bologne.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Herbier_d%27Ulisse_Aldrovandi</t>
+          <t>Herbier_d'Ulisse_Aldrovandi</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'herbier d'Ulisse Aldrovandi, très probablement commencé en 1551, est l'un des plus anciens existants aujourd'hui. Véritable monument de la botanique, il est composé de 15 volumes reliés et de plus de 5 000 échantillons. Cette collection faisait partie du Musée d'histoire naturelle - le premier en Europe - fondé par Aldrovandi à Bologne en 1550.
 L'intérêt du naturaliste bolonais pour la botanique l'amène à proposer au Sénat de Bologne une proposition déjà présentée dans le passé par Luca Ghini : la création d'un jardin botanique municipal. La proposition fut acceptée et le projet achevé en 1568. Aux plantes récoltées par Aldrovandi s'ajoutèrent d'autres échantillons offerts par d'autres savants.
